--- a/analyses/pronovo-2019/Unipept-GO/etnp-peps-GO/cellular-comp-unipept-etnp-2017.xlsx
+++ b/analyses/pronovo-2019/Unipept-GO/etnp-peps-GO/cellular-comp-unipept-etnp-2017.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/pronovo-2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/pronovo-2019/Unipept-GO/etnp-peps-GO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB6F9A1-6A21-5E4C-A882-2DD6190C9BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9728BAE8-7196-8147-AA77-E220DD94417A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1100" windowWidth="23620" windowHeight="12100" xr2:uid="{474C9BB3-B85F-CB47-8466-4CEC614D8A67}"/>
+    <workbookView xWindow="5820" yWindow="2700" windowWidth="23620" windowHeight="12100" xr2:uid="{474C9BB3-B85F-CB47-8466-4CEC614D8A67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>231-db-intmem</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>273-db-cyto</t>
+  </si>
+  <si>
+    <t>med4-db-intnmem</t>
+  </si>
+  <si>
+    <t>med4-db-intmem</t>
   </si>
 </sst>
 </file>
@@ -453,85 +459,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656D3D4E-B9AD-8A4D-A785-0BD6D0645655}">
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>11</v>
       </c>
     </row>
